--- a/Multiknapsack/results/fixed_recourse/multicut/M50_N100_T0_a50_ccg.xlsx
+++ b/Multiknapsack/results/fixed_recourse/multicut/M50_N100_T0_a50_ccg.xlsx
@@ -471,10 +471,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-790.4501666393605</v>
+        <v>-411.5189726818494</v>
       </c>
       <c r="C2">
-        <v>7.90321757</v>
+        <v>41.035422216</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -483,16 +483,16 @@
         <v>14</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G2">
-        <v>652</v>
+        <v>27700</v>
       </c>
       <c r="H2">
-        <v>605</v>
+        <v>30250</v>
       </c>
       <c r="I2">
-        <v>50</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -500,10 +500,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-796.6855908813169</v>
+        <v>-411.39604929747</v>
       </c>
       <c r="C3">
-        <v>0.152082535</v>
+        <v>37.704386631</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -512,16 +512,16 @@
         <v>14</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G3">
-        <v>652</v>
+        <v>27700</v>
       </c>
       <c r="H3">
-        <v>605</v>
+        <v>30250</v>
       </c>
       <c r="I3">
-        <v>50</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -529,10 +529,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-795.4333667618575</v>
+        <v>-412.34762188775494</v>
       </c>
       <c r="C4">
-        <v>0.123238259</v>
+        <v>32.774448534</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -541,16 +541,16 @@
         <v>14</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G4">
-        <v>652</v>
+        <v>27700</v>
       </c>
       <c r="H4">
-        <v>605</v>
+        <v>30250</v>
       </c>
       <c r="I4">
-        <v>50</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -558,10 +558,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-808.2943571304373</v>
+        <v>-416.71129461891667</v>
       </c>
       <c r="C5">
-        <v>0.153707216</v>
+        <v>29.938049389</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -570,16 +570,16 @@
         <v>14</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G5">
-        <v>652</v>
+        <v>27700</v>
       </c>
       <c r="H5">
-        <v>605</v>
+        <v>30250</v>
       </c>
       <c r="I5">
-        <v>50</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -587,10 +587,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-786.6718742477501</v>
+        <v>-408.2905898186462</v>
       </c>
       <c r="C6">
-        <v>0.183246865</v>
+        <v>20.644993133</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -599,16 +599,16 @@
         <v>14</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G6">
-        <v>652</v>
+        <v>27700</v>
       </c>
       <c r="H6">
-        <v>605</v>
+        <v>30250</v>
       </c>
       <c r="I6">
-        <v>50</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -616,10 +616,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-781.4694215272532</v>
+        <v>-403.9902935908759</v>
       </c>
       <c r="C7">
-        <v>0.168591756</v>
+        <v>27.442563988</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -628,16 +628,16 @@
         <v>14</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G7">
-        <v>652</v>
+        <v>27700</v>
       </c>
       <c r="H7">
-        <v>605</v>
+        <v>30250</v>
       </c>
       <c r="I7">
-        <v>50</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -645,10 +645,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-778.6638845224827</v>
+        <v>-400.1919964156508</v>
       </c>
       <c r="C8">
-        <v>0.17044778</v>
+        <v>28.369221222</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -657,16 +657,16 @@
         <v>14</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G8">
-        <v>652</v>
+        <v>27700</v>
       </c>
       <c r="H8">
-        <v>605</v>
+        <v>30250</v>
       </c>
       <c r="I8">
-        <v>50</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -674,10 +674,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-800.5274282274553</v>
+        <v>-412.09265747622965</v>
       </c>
       <c r="C9">
-        <v>0.171475381</v>
+        <v>27.04728668</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -686,16 +686,16 @@
         <v>14</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G9">
-        <v>652</v>
+        <v>27700</v>
       </c>
       <c r="H9">
-        <v>605</v>
+        <v>30250</v>
       </c>
       <c r="I9">
-        <v>50</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -703,10 +703,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-793.5538497949096</v>
+        <v>-408.4459826348807</v>
       </c>
       <c r="C10">
-        <v>0.162332911</v>
+        <v>28.389731285</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -715,16 +715,16 @@
         <v>14</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G10">
-        <v>652</v>
+        <v>27700</v>
       </c>
       <c r="H10">
-        <v>605</v>
+        <v>30250</v>
       </c>
       <c r="I10">
-        <v>50</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -732,10 +732,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-783.4743422616683</v>
+        <v>-403.1039288610207</v>
       </c>
       <c r="C11">
-        <v>0.164836787</v>
+        <v>28.719738159</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -744,16 +744,16 @@
         <v>14</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G11">
-        <v>652</v>
+        <v>27700</v>
       </c>
       <c r="H11">
-        <v>605</v>
+        <v>30250</v>
       </c>
       <c r="I11">
-        <v>50</v>
+        <v>2500</v>
       </c>
     </row>
   </sheetData>
@@ -797,10 +797,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.02755807054187012</v>
+        <v>0.028937167536499022</v>
       </c>
       <c r="E2">
-        <v>24.2417</v>
+        <v>82.46345</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -808,13 +808,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-793.5538497949096</v>
+        <v>-408.4459826348807</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.04149298119528847</v>
       </c>
       <c r="D3">
-        <v>0.08379513107360839</v>
+        <v>27.672336497333617</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -861,10 +861,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.03779766129052734</v>
+        <v>0.03128311739868164</v>
       </c>
       <c r="E2">
-        <v>23.14051</v>
+        <v>84.38256</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -872,13 +872,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-783.4743422616683</v>
+        <v>-403.1039288610207</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.09010305099909127</v>
       </c>
       <c r="D3">
-        <v>0.0520822637109375</v>
+        <v>27.802565506419434</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -925,10 +925,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.8348197782161865</v>
+        <v>0.9010757257277832</v>
       </c>
       <c r="E2">
-        <v>23.54493</v>
+        <v>84.92934</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -936,13 +936,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-790.4501666393605</v>
+        <v>-411.5189726818494</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.0837459263334878</v>
       </c>
       <c r="D3">
-        <v>0.06422266589318848</v>
+        <v>29.604633740277098</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -989,10 +989,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.026403791420532226</v>
+        <v>0.03456503136352539</v>
       </c>
       <c r="E2">
-        <v>26.20524</v>
+        <v>81.97293</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1000,13 +1000,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-796.6855908813169</v>
+        <v>-411.39604929747</v>
       </c>
       <c r="C3">
-        <v>1.426997538587814e-14</v>
+        <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0.06090946383691406</v>
+        <v>36.7756628814342</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1053,10 +1053,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.02209576252331543</v>
+        <v>0.07678334272521972</v>
       </c>
       <c r="E2">
-        <v>24.76035</v>
+        <v>86.44331</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1064,13 +1064,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-795.4333667618575</v>
+        <v>-412.34762188775494</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.09407025148614129</v>
       </c>
       <c r="D3">
-        <v>0.05317452241491699</v>
+        <v>31.316211326493775</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1117,10 +1117,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.046772122018432616</v>
+        <v>0.0340887926751709</v>
       </c>
       <c r="E2">
-        <v>24.65774</v>
+        <v>85.55874</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1128,13 +1128,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-808.2943571304373</v>
+        <v>-416.71129461891667</v>
       </c>
       <c r="C3">
-        <v>1.4065029245683068e-14</v>
+        <v>0.09880801886621136</v>
       </c>
       <c r="D3">
-        <v>0.06262560797497559</v>
+        <v>29.069990408236816</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1181,10 +1181,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.026943840045654296</v>
+        <v>0.11503299599829102</v>
       </c>
       <c r="E2">
-        <v>21.92058</v>
+        <v>84.60907</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1192,13 +1192,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-786.6718742477501</v>
+        <v>-408.2905898186462</v>
       </c>
       <c r="C3">
         <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0.0717553326636963</v>
+        <v>19.580634745200562</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1245,10 +1245,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.036963944040283206</v>
+        <v>0.05615988780419922</v>
       </c>
       <c r="E2">
-        <v>24.98162</v>
+        <v>89.81808</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1256,13 +1256,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-781.4694215272532</v>
+        <v>-403.9902935908759</v>
       </c>
       <c r="C3">
         <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0.07339227498425294</v>
+        <v>26.55329123092859</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1309,10 +1309,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.03844972221508789</v>
+        <v>0.06278624963916016</v>
       </c>
       <c r="E2">
-        <v>22.11696</v>
+        <v>83.52166</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1320,13 +1320,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-778.6638845224827</v>
+        <v>-400.1919964156508</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>5.271016887334036e-5</v>
       </c>
       <c r="D3">
-        <v>0.0723595498701172</v>
+        <v>27.271777710144896</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1373,10 +1373,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.037136583715698245</v>
+        <v>0.05939362430908203</v>
       </c>
       <c r="E2">
-        <v>24.41045</v>
+        <v>85.27605</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1384,13 +1384,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-800.5274282274553</v>
+        <v>-412.09265747622965</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.09772822620371914</v>
       </c>
       <c r="D3">
-        <v>0.05965007944421387</v>
+        <v>26.089015479168822</v>
       </c>
       <c r="E3">
         <v>0.0</v>
